--- a/youtube_comments.xlsx
+++ b/youtube_comments.xlsx
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
